--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\바탕 화면\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C3D85724-840E-46BA-A4C1-7165217F9ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D589EE9D-109A-417B-8906-7EDFAA642168}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -18,9 +12,9 @@
     <sheet name="박성곤" sheetId="3" r:id="rId3"/>
     <sheet name="박윤화" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>할일</t>
   </si>
@@ -69,15 +63,6 @@
   <si>
     <t>부트스트랩을 이용한 웹 구축, GUI수정(회원가입, 로그인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 마이닝</t>
-  </si>
-  <si>
-    <t>핸드폰 모델 및 요금제 데이터 마이닝</t>
-  </si>
-  <si>
-    <t>업로드 예정</t>
   </si>
   <si>
     <t>명세서 작성</t>
@@ -184,17 +169,73 @@
   </si>
   <si>
     <t>recomPhoneTest.java 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 마이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 모델 및 요금제 데이터 마이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 용량이 지나치게 커서 활용하기 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 링크 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 제품 별 youtube 영상 링크 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 제품의 경우 영상이 없는 경우도 있었고 중국 제품의 경우 유튜브에는 광고 영상이 없어 다른 영상으로 대체함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금제 영상 링크 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금제별 영상 링크 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test code 추가 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test case 구체화 및 coverage 수치 향상 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user test 양식 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 후기 작성 양식 제작 및 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,6 +245,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -245,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -256,109 +313,228 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -384,9 +560,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D6A9A9CA-8D25-4C37-B3D9-3C06DADC13B8}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -401,60 +577,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46C7571-941F-AD4B-94C8-83666430A1CC}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{4E226D53-8B78-D74B-AEA9-0667C9B5EEFE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F9298CBC-86C8-9A41-AACC-1AE8C0A66611}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{E740C854-D7A5-1549-B300-A67F30554219}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{EA738C33-5E64-6945-B470-E3391E8D2A3F}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C3FAB94C-D6FC-9E47-8459-1AB7E77BA67F}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="7"/>
+    <tableColumn id="2" name="내용" dataDxfId="6"/>
+    <tableColumn id="3" name="할당일" dataDxfId="5"/>
+    <tableColumn id="4" name="완성일" dataDxfId="4"/>
+    <tableColumn id="5" name="결과" dataDxfId="3"/>
+    <tableColumn id="6" name="문제점" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{6ECDDE03-3D31-CF45-9CCB-373713B27D9F}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{495FFBF1-9FCF-C045-B6CA-30DA46033F57}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{84E860E1-A248-8246-AD59-8EC3E5E7E7E7}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{FD0E0825-8B19-7E41-AAAF-A4E947367A39}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="27"/>
+    <tableColumn id="2" name="내용" dataDxfId="26"/>
+    <tableColumn id="3" name="할당일" dataDxfId="25"/>
+    <tableColumn id="4" name="완성일" dataDxfId="24"/>
+    <tableColumn id="5" name="결과" dataDxfId="23"/>
+    <tableColumn id="6" name="문제점" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC292F7A-8169-F544-87D7-5E751E302B2D}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="19"/>
+    <tableColumn id="2" name="내용" dataDxfId="18"/>
+    <tableColumn id="3" name="할당일" dataDxfId="17"/>
+    <tableColumn id="4" name="완성일" dataDxfId="16"/>
+    <tableColumn id="5" name="결과" dataDxfId="15"/>
+    <tableColumn id="6" name="문제점" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A834ADBB-1A19-264E-8768-BD31A0F05DCF}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{A931BC6D-B1E1-2649-8D23-2C7B73EDCFEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="13"/>
+    <tableColumn id="2" name="내용" dataDxfId="12"/>
+    <tableColumn id="3" name="할당일" dataDxfId="11"/>
+    <tableColumn id="4" name="완성일" dataDxfId="10"/>
+    <tableColumn id="5" name="결과" dataDxfId="9"/>
+    <tableColumn id="6" name="문제점" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,7 +679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -555,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -749,213 +925,214 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" style="7"/>
+    <col min="5" max="5" width="31.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="120.75">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43594</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43598</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43598</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="103.5">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43601</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43606</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="224.25">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2">
-        <v>43601</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C4" s="9">
         <v>43606</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="9">
+        <v>43610</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="249.6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43606</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43610</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="51.75">
+      <c r="A5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43611</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43612</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="34.5">
+      <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2">
-        <v>43611</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43612</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="9">
+        <v>43613</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43616</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43613</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43616</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -968,24 +1145,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,63 +1181,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="43.9" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <v>43599</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34.5">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43600</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43600</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="103.5">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43604</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43609</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43600</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43600</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43604</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43609</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.9" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1069,7 +1245,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1077,7 +1253,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1085,7 +1261,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1093,7 +1269,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1101,7 +1277,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1109,7 +1285,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1117,7 +1293,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1125,7 +1301,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1133,7 +1309,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1141,7 +1317,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1149,7 +1325,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="19" spans="2:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" ht="18" thickBot="1">
       <c r="B19" s="3"/>
     </row>
   </sheetData>
@@ -1163,16 +1339,228 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.5">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43585</v>
+      </c>
+      <c r="D2" s="11">
+        <v>43594</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>43594</v>
+      </c>
+      <c r="D3" s="11">
+        <v>43601</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="86.25">
+      <c r="A4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43607</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43607</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43628</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="34.5">
+      <c r="A6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="14">
+        <v>43628</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43628</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,41 +1580,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>43585</v>
+        <v>43594</v>
       </c>
       <c r="D2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>43599</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43601</v>
-      </c>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1234,7 +1612,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1242,7 +1620,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1250,7 +1628,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1258,7 +1636,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1266,7 +1644,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1274,7 +1652,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1282,7 +1660,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1290,7 +1668,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1298,7 +1676,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1306,7 +1684,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1314,166 +1692,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43599</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
